--- a/조성욱 일정표.xlsx
+++ b/조성욱 일정표.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hjchang\Documents\GitHub\CapstoneDesign-2019-02\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1A16D0-B5E7-478B-BCDE-B0C3194664E7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12570"/>
+    <workbookView xWindow="39555" yWindow="4320" windowWidth="27270" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Mid
 Demo</t>
@@ -26,21 +32,6 @@
 Demo</t>
   </si>
   <si>
-    <t>장혁재</t>
-  </si>
-  <si>
-    <t xml:space="preserve">가게 배치도 입력 UI 및 저장 기능 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">가게 사용 통계 뷰어 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">가게 자동 배치 알고리즘 구현 </t>
-  </si>
-  <si>
-    <t>남근우</t>
-  </si>
-  <si>
     <t>조성욱</t>
   </si>
   <si>
@@ -68,26 +59,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>판매자용 로그인/가입 기능 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">액티비티 및 GUI 설계 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터베이스 설계</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오류 수정 및 추가 기능 구현</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -112,18 +91,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4472C4"/>
-        <bgColor rgb="FF3465A4"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -137,32 +110,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor rgb="FF4472C4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor rgb="FF3465A4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FF3465A4"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -220,6 +169,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -229,16 +191,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -246,18 +202,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1">
@@ -269,52 +213,46 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -363,7 +301,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -396,9 +334,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -431,6 +386,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -606,411 +578,186 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="5" t="s">
-        <v>14</v>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="5">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="3">
         <v>3</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="3">
         <v>4</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="3">
         <v>5</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="3">
         <v>6</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="3">
         <v>7</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="3">
         <v>8</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="3">
         <v>9</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="3">
         <v>10</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="3">
         <v>11</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="3">
         <v>12</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="3">
         <v>13</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="20"/>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9"/>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="17" t="s">
-        <v>1</v>
-      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="10"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
-      <c r="B5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="7"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="17"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="10"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
-      <c r="B6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="17"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="10"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
-      <c r="B7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="22"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
-      <c r="N7" s="17"/>
+      <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
-      <c r="B8" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="17"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
-      <c r="B11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="17"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="18"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="17"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="17"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="18"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="17"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18"/>
-      <c r="B17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="17"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="18"/>
-      <c r="B18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="17"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="18"/>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="17"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="18"/>
-      <c r="B20" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="17"/>
-    </row>
-    <row r="23" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="H16:H20"/>
-    <mergeCell ref="N16:N20"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="H4:H8"/>
-    <mergeCell ref="N4:N8"/>
-    <mergeCell ref="H10:H14"/>
-    <mergeCell ref="N10:N14"/>
+  <mergeCells count="6">
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="J1:M1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="I3:I7"/>
+    <mergeCell ref="N3:N7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1019,7 +766,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1032,7 +779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/조성욱 일정표.xlsx
+++ b/조성욱 일정표.xlsx
@@ -5,61 +5,81 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hjchang\Documents\GitHub\CapstoneDesign-2019-02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\CapstoneDesign-2019-02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1A16D0-B5E7-478B-BCDE-B0C3194664E7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E57D013-5730-4D51-8309-B277C07A3086}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39555" yWindow="4320" windowWidth="27270" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>조성욱</t>
+  </si>
+  <si>
+    <t>길찾기 알고리즘 설계</t>
+  </si>
+  <si>
+    <t>오류 수정 및 추가 기능 구현</t>
+  </si>
+  <si>
+    <t xml:space="preserve">액티비티 및 GUI 설계 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한 설정 및 네트워크 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB 연동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GUI 구성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB 반영 및 GUI 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>알고리즘 연동 및 GUI 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
   <si>
     <t>Mid
 Demo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Final
 Demo</t>
-  </si>
-  <si>
-    <t>조성욱</t>
-  </si>
-  <si>
-    <t>길찾기 알고리즘 설계</t>
-  </si>
-  <si>
-    <t>안드로이드 어플리케이션 제작</t>
-  </si>
-  <si>
-    <t>알고리즘 연동</t>
-  </si>
-  <si>
-    <t>오류 수정 및 추가 기능 구현</t>
-  </si>
-  <si>
-    <t>4월</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5월</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6월</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">액티비티 및 GUI 설계 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -191,16 +211,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -210,13 +224,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -228,16 +257,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -579,185 +608,262 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N3" sqref="A1:N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.625" customWidth="1"/>
+    <col min="1" max="1" width="6.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="13" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1">
         <v>7</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="12" t="s">
+      <c r="H2" s="1">
         <v>8</v>
       </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="3" t="s">
+      <c r="I2" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="3">
+      <c r="J2" s="1">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1">
+        <v>13</v>
+      </c>
+      <c r="N2" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="12"/>
+      <c r="B4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="13"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A5" s="12"/>
+      <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="13"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A6" s="12"/>
+      <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3">
-        <v>6</v>
-      </c>
-      <c r="G2" s="3">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="13"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A7" s="12"/>
+      <c r="B7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3">
-        <v>8</v>
-      </c>
-      <c r="I2" s="3">
-        <v>9</v>
-      </c>
-      <c r="J2" s="3">
-        <v>10</v>
-      </c>
-      <c r="K2" s="3">
-        <v>11</v>
-      </c>
-      <c r="L2" s="3">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="13"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A8" s="12"/>
+      <c r="B8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="13"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A9" s="12"/>
+      <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="3">
-        <v>13</v>
-      </c>
-      <c r="N2" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="13"/>
+    </row>
+    <row r="10" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="12"/>
+      <c r="B10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="10"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="10"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="10"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="10"/>
-    </row>
-    <row r="10" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="13"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B11" s="7"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B12" s="7"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B13" s="7"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B14" s="7"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B18" s="6"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B19" s="6"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B20" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="I3:I10"/>
+    <mergeCell ref="N3:N10"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="J1:M1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="I3:I7"/>
-    <mergeCell ref="N3:N7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -771,7 +877,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -784,7 +890,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/조성욱 일정표.xlsx
+++ b/조성욱 일정표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\CapstoneDesign-2019-02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E57D013-5730-4D51-8309-B277C07A3086}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EA90A7-47DC-4C4D-925A-405B8B21CE52}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -611,7 +611,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N3" sqref="A1:N10"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -793,7 +793,7 @@
       <c r="H8" s="8"/>
       <c r="I8" s="13"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="8"/>
+      <c r="K8" s="4"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
       <c r="N8" s="13"/>
@@ -812,7 +812,7 @@
       <c r="I9" s="13"/>
       <c r="J9" s="8"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="8"/>
+      <c r="L9" s="4"/>
       <c r="M9" s="8"/>
       <c r="N9" s="13"/>
     </row>

--- a/조성욱 일정표.xlsx
+++ b/조성욱 일정표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\CapstoneDesign-2019-02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EA90A7-47DC-4C4D-925A-405B8B21CE52}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FBD6E6-7FB5-416E-BEFE-94D612C45DA1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -611,7 +611,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -775,7 +775,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="13"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="K7" s="4"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="13"/>
@@ -794,7 +794,7 @@
       <c r="I8" s="13"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="8"/>
+      <c r="L8" s="4"/>
       <c r="M8" s="8"/>
       <c r="N8" s="13"/>
     </row>
@@ -811,9 +811,9 @@
       <c r="H9" s="8"/>
       <c r="I9" s="13"/>
       <c r="J9" s="8"/>
-      <c r="K9" s="4"/>
+      <c r="K9" s="8"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="8"/>
+      <c r="M9" s="4"/>
       <c r="N9" s="13"/>
     </row>
     <row r="10" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -830,7 +830,7 @@
       <c r="I10" s="13"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="4"/>
+      <c r="L10" s="8"/>
       <c r="M10" s="4"/>
       <c r="N10" s="13"/>
     </row>
